--- a/replication/temp/figureA1_police_report_primary.xlsx
+++ b/replication/temp/figureA1_police_report_primary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>year</t>
   </si>
@@ -34,7 +34,67 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(nan)</t>
+    <t>(0.13)</t>
+  </si>
+  <si>
+    <t>(0.45)</t>
+  </si>
+  <si>
+    <t>(0.2)</t>
+  </si>
+  <si>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>(0.66)</t>
+  </si>
+  <si>
+    <t>(0.64)</t>
+  </si>
+  <si>
+    <t>(2.1)</t>
+  </si>
+  <si>
+    <t>(1.17)</t>
+  </si>
+  <si>
+    <t>(1.79)</t>
+  </si>
+  <si>
+    <t>(1.42)</t>
+  </si>
+  <si>
+    <t>(0.61)</t>
+  </si>
+  <si>
+    <t>(3.09)</t>
+  </si>
+  <si>
+    <t>(2.43)</t>
+  </si>
+  <si>
+    <t>(0.33)</t>
+  </si>
+  <si>
+    <t>(0.02)</t>
+  </si>
+  <si>
+    <t>(3.38)</t>
+  </si>
+  <si>
+    <t>(1.37)</t>
+  </si>
+  <si>
+    <t>(0.47)</t>
+  </si>
+  <si>
+    <t>(1.11)</t>
+  </si>
+  <si>
+    <t>(1.49)</t>
+  </si>
+  <si>
+    <t>(1.38)</t>
   </si>
 </sst>
 </file>
@@ -517,34 +577,34 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -590,37 +650,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12">

--- a/replication/temp/figureA1_police_report_primary.xlsx
+++ b/replication/temp/figureA1_police_report_primary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -34,67 +34,70 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(0.13)</t>
-  </si>
-  <si>
-    <t>(0.45)</t>
+    <t>(0.87)</t>
+  </si>
+  <si>
+    <t>(0.46)</t>
+  </si>
+  <si>
+    <t>(0.05)</t>
+  </si>
+  <si>
+    <t>(0.16)</t>
+  </si>
+  <si>
+    <t>(0.69)</t>
+  </si>
+  <si>
+    <t>(0.21)</t>
+  </si>
+  <si>
+    <t>(0.22)</t>
+  </si>
+  <si>
+    <t>(0.19)</t>
+  </si>
+  <si>
+    <t>(0.08)</t>
+  </si>
+  <si>
+    <t>(0.36)</t>
+  </si>
+  <si>
+    <t>(0.25)</t>
+  </si>
+  <si>
+    <t>(0.66)</t>
+  </si>
+  <si>
+    <t>(0.48)</t>
+  </si>
+  <si>
+    <t>(0.04)</t>
+  </si>
+  <si>
+    <t>(1.73)</t>
+  </si>
+  <si>
+    <t>(1.44)</t>
+  </si>
+  <si>
+    <t>(1.01)</t>
+  </si>
+  <si>
+    <t>(0.56)</t>
   </si>
   <si>
     <t>(0.2)</t>
   </si>
   <si>
-    <t>(0.22)</t>
-  </si>
-  <si>
-    <t>(0.66)</t>
-  </si>
-  <si>
-    <t>(0.64)</t>
-  </si>
-  <si>
-    <t>(2.1)</t>
-  </si>
-  <si>
-    <t>(1.17)</t>
-  </si>
-  <si>
-    <t>(1.79)</t>
-  </si>
-  <si>
-    <t>(1.42)</t>
-  </si>
-  <si>
-    <t>(0.61)</t>
-  </si>
-  <si>
-    <t>(3.09)</t>
-  </si>
-  <si>
-    <t>(2.43)</t>
-  </si>
-  <si>
-    <t>(0.33)</t>
-  </si>
-  <si>
-    <t>(0.02)</t>
-  </si>
-  <si>
-    <t>(3.38)</t>
-  </si>
-  <si>
-    <t>(1.37)</t>
-  </si>
-  <si>
-    <t>(0.47)</t>
-  </si>
-  <si>
-    <t>(1.11)</t>
-  </si>
-  <si>
-    <t>(1.49)</t>
-  </si>
-  <si>
-    <t>(1.38)</t>
+    <t>(0.4)</t>
+  </si>
+  <si>
+    <t>(2.67)</t>
+  </si>
+  <si>
+    <t>(2.04)</t>
   </si>
 </sst>
 </file>
@@ -592,19 +595,19 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -665,22 +668,22 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">
